--- a/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_laperr.xlsx
+++ b/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_laperr.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,25 @@
         <v>0.02479639922851774</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0007841309933295808</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.957</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1733559041508171</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00980177786924692</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0003099594318585236</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +546,25 @@
         <v>0.02479339619735563</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0007840360291460136</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.957</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1733532712122156</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.009802634621257427</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0003099865247359548</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +580,25 @@
         <v>0.02511271584181816</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0007941338029273814</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.965</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1761153267694199</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01047423239168781</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0003312243109964636</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +614,25 @@
         <v>0.02679602201966743</v>
       </c>
       <c r="D5" t="n">
+        <v>0.000847364618141743</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.965</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1847097042425607</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01258067645415526</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0003978359210078152</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +648,25 @@
         <v>0.02104051380603174</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0006653594676727854</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.959</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.006270486424512856</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1448676741784361</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.007040783564834861</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0002226491257715797</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +682,25 @@
         <v>0.7118056065814976</v>
       </c>
       <c r="D7" t="n">
+        <v>0.02250926968075272</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.956</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3063081992466234</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.3584408409942412</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01133489463968055</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +716,25 @@
         <v>0.9210604560071668</v>
       </c>
       <c r="D8" t="n">
+        <v>0.02912648903695964</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.955</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3537148069342401</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1.111377602516213</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.03514484564448513</v>
       </c>
     </row>
     <row r="9">
@@ -672,16 +750,25 @@
         <v>0.3239512452869355</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01024423785954603</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.969</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3339840562216681</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>1.032851851072436</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03266164334909923</v>
       </c>
     </row>
     <row r="10">
@@ -697,16 +784,25 @@
         <v>0.1935767373632347</v>
       </c>
       <c r="D10" t="n">
+        <v>0.006121433920920387</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.969</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.329009866760043</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>1.088249229571165</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.03441346227368344</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +818,25 @@
         <v>5.136665064058935</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1624356117984095</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.928</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.9263155094798772</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>9.99582718895811</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3160958101454592</v>
       </c>
     </row>
     <row r="12">
@@ -747,16 +852,25 @@
         <v>0.02472593508950095</v>
       </c>
       <c r="D12" t="n">
+        <v>0.000781902721603023</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.945</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1591715503347152</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.008545354179446204</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002702278261988922</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +886,25 @@
         <v>0.02520377425638996</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0007970133228290888</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.242962960140018</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007683163410991595</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1574650473225853</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.008538625450149977</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002700150450955445</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +920,25 @@
         <v>0.02563855758865367</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0008107623790153997</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.944</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1615476282353044</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.00896410691682705</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0002834699504644303</v>
       </c>
     </row>
     <row r="15">
@@ -822,16 +954,25 @@
         <v>0.0284562321271265</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0008107623790153997</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.897</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1557844638437512</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.009386158684655595</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002968163992328181</v>
       </c>
     </row>
     <row r="16">
@@ -847,16 +988,25 @@
         <v>0.0199587721289123</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0006311517922765066</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.953</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1329833462923966</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.005810026519557769</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0001837291706778337</v>
       </c>
     </row>
     <row r="17">
@@ -872,16 +1022,25 @@
         <v>0.03021088351497075</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0009553520203334116</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.856</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.351089732119867</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01110243216597156</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1494173982584882</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.007525960789394388</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002379917767560506</v>
       </c>
     </row>
     <row r="18">
@@ -897,16 +1056,25 @@
         <v>0.03056160713244792</v>
       </c>
       <c r="D18" t="n">
+        <v>0.0009664428749378266</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.859</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3480215510568275</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01100540776164155</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.1511723709248573</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.008044295371543737</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0002543829554522865</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1090,25 @@
         <v>0.0281845780473914</v>
       </c>
       <c r="D19" t="n">
+        <v>0.0008912746152053795</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.914</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2803640490505157</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008865889690267975</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.1611960673314067</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.008585789641833149</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0002715065077927404</v>
       </c>
     </row>
     <row r="20">
@@ -947,16 +1124,25 @@
         <v>0.02935827725996714</v>
       </c>
       <c r="D20" t="n">
+        <v>0.0009283902432022344</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.901</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.1607491483860317</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.009175386085366952</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0002901511844117571</v>
       </c>
     </row>
     <row r="21">
@@ -972,16 +1158,25 @@
         <v>0.02839166242001331</v>
       </c>
       <c r="D21" t="n">
+        <v>0.0008978231980585018</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.915</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2788816953476869</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.00881901355027874</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1642368183669279</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01007319186563618</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0003185422960329115</v>
       </c>
     </row>
     <row r="22">
@@ -997,16 +1192,25 @@
         <v>0.0291725154075209</v>
       </c>
       <c r="D22" t="n">
+        <v>0.0009225159376412118</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.911</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2847437444440176</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.009004387819280108</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.1672566689110898</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01054608105359082</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0003334963651809524</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,22 +1250,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1297,25 @@
         <v>0.03123223050030984</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0009876498478835929</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5308506447195425</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.03874070977793779</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001225088810698394</v>
       </c>
     </row>
     <row r="3">
@@ -1103,16 +1331,25 @@
         <v>0.03124298613001119</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0009879899707588491</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.561142078090446</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.03929700618643405</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00124268044774859</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1365,25 @@
         <v>0.03179503157572011</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001005447180562479</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5400626371931371</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04061871764639653</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001284476633978869</v>
       </c>
     </row>
     <row r="5">
@@ -1153,16 +1399,25 @@
         <v>0.03164865445648696</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001000818329621371</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6316504674892474</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05290814309630543</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001673102389544385</v>
       </c>
     </row>
     <row r="6">
@@ -1178,16 +1433,25 @@
         <v>0.02769392342393535</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008757587536592456</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4488622123734821</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02842470355474448</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0008988680504807719</v>
       </c>
     </row>
     <row r="7">
@@ -1203,16 +1467,25 @@
         <v>0.02654907976590941</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0008395556184176366</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.956</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1721005307479797</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.009388641091005252</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0002968948998142479</v>
       </c>
     </row>
     <row r="8">
@@ -1228,16 +1501,25 @@
         <v>0.02675669706324486</v>
       </c>
       <c r="D8" t="n">
+        <v>0.000846121053829921</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.946</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1703716949375571</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.009398064810312025</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002971929039846429</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1535,25 @@
         <v>0.0261472024997952</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0008268471434100115</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.953</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1746492598373954</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.009555158449923955</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003021606410556364</v>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1569,25 @@
         <v>0.03063998643459625</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0008268471434100115</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.896</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3052605444534227</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009653186002558949</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1687035821535207</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01003696862051343</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003173968164446067</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1603,25 @@
         <v>0.02113952175193178</v>
       </c>
       <c r="D11" t="n">
+        <v>0.000668490373827774</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.959</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006270486424512856</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1438878689250626</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.006222461407714887</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001967715070087667</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1637,25 @@
         <v>0.0370617557568462</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001171995622764916</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.777</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4162583332499183</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01316324428095141</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1598068565521487</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.008184543776999998</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002588179994467722</v>
       </c>
     </row>
     <row r="13">
@@ -1353,16 +1671,25 @@
         <v>0.03812541003297069</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001205631324320226</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.763</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4252422838806132</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01344734174474643</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1620087912241985</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.008670366354764262</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002741810582914657</v>
       </c>
     </row>
     <row r="14">
@@ -1378,16 +1705,25 @@
         <v>0.03330133339713877</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001053080626555911</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.866</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.3406523154185217</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01077237206932624</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.171052335481864</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.009927978566574283</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003139502483170834</v>
       </c>
     </row>
     <row r="15">
@@ -1403,16 +1739,25 @@
         <v>0.03483981693754325</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001101731747859489</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.849</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3580488793447061</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01132249972400088</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.170757361112764</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.009400259156805865</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002972622953136043</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1773,25 @@
         <v>0.03187614354024317</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001008012166096316</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.913</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.00891240708226459</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1810321064622502</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.009762864440511203</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003087288811948084</v>
       </c>
     </row>
     <row r="17">
@@ -1453,16 +1807,25 @@
         <v>0.03340295900288421</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00105629431038341</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.905</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2932149382279149</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009272270487857868</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1851910272495318</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01037768585847691</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003281712415450685</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,22 +1865,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1912,25 @@
         <v>0.1256664313180975</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003973921483903038</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.933628989640226</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.1399109956664446</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.004424374160079127</v>
       </c>
     </row>
     <row r="3">
@@ -1559,16 +1946,25 @@
         <v>0.1256711229296044</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003974069845685622</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.066904526690709</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.1444446574008516</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00456774113229388</v>
       </c>
     </row>
     <row r="4">
@@ -1584,16 +1980,25 @@
         <v>0.1226938992470721</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003879921766279661</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.9858304310216</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1410565020454247</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00446059825239742</v>
       </c>
     </row>
     <row r="5">
@@ -1609,16 +2014,25 @@
         <v>0.1253216230007579</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003963017687513403</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.347764523715504</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.2056970402457498</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.006504711551318908</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +2048,25 @@
         <v>0.1041136996863834</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003292364266357298</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.444202962508962</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.09716638238430542</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.003072670803332674</v>
       </c>
     </row>
     <row r="7">
@@ -1659,16 +2082,25 @@
         <v>0.2472407520952281</v>
       </c>
       <c r="D7" t="n">
+        <v>0.007818439070339682</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.8442863504282705</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.04263046125180396</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001348093552592534</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2116,25 @@
         <v>0.2350290177860663</v>
       </c>
       <c r="D8" t="n">
+        <v>0.007432270124361941</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.073</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.7454345024943261</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.03703671923704325</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001171203898492303</v>
       </c>
     </row>
     <row r="9">
@@ -1709,16 +2150,25 @@
         <v>0.2546886724033341</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008053962990390065</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.8611767571591941</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.04456515943026702</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001409274080881756</v>
       </c>
     </row>
     <row r="10">
@@ -1734,16 +2184,25 @@
         <v>0.2417407599166175</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008053962990390065</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.036</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1862900963551203</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.005891010100144116</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7283731941241574</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.04007956267216625</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001267427056675098</v>
       </c>
     </row>
     <row r="11">
@@ -1759,16 +2218,25 @@
         <v>0.1947816025134069</v>
       </c>
       <c r="D11" t="n">
+        <v>0.006159535102399437</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6667933404999626</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.027607261268272</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0008730182556708832</v>
       </c>
     </row>
     <row r="12">
@@ -1784,16 +2252,25 @@
         <v>0.2555872351596674</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.008082378039696185</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.8646931281760113</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03547897542015083</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00112194371376806</v>
       </c>
     </row>
     <row r="13">
@@ -1809,16 +2286,25 @@
         <v>0.255811816220666</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.008089479916417111</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.879661822998332</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03754072738017097</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001187142035407861</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +2320,25 @@
         <v>0.277370343119076</v>
       </c>
       <c r="D14" t="n">
+        <v>0.008771220396386923</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.028</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.9254573124500026</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.043829900292085</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001386023145410679</v>
       </c>
     </row>
     <row r="15">
@@ -1859,16 +2354,25 @@
         <v>0.25342525312845</v>
       </c>
       <c r="D15" t="n">
+        <v>0.008014010164906141</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.006</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.9271050588764701</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.03986365753795416</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001260599536848753</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2388,25 @@
         <v>0.2222852743404036</v>
       </c>
       <c r="D16" t="n">
+        <v>0.007029277572310579</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.107</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.979548308510966</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04362986674691766</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001379697529299009</v>
       </c>
     </row>
     <row r="17">
@@ -1909,16 +2422,25 @@
         <v>0.2214526994299755</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007002949241913944</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.112</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009972762907038352</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.005554690915613</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.04647492893370932</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00146966629524982</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,22 +2480,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1990,16 +2527,25 @@
         <v>0.05080124635381249</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001606476464533716</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.069163085498049</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04268097107503777</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001349690813448847</v>
       </c>
     </row>
     <row r="3">
@@ -2015,16 +2561,25 @@
         <v>0.05070369822397613</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001603391721815989</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.110499189707314</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04442865842917857</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00140495754021843</v>
       </c>
     </row>
     <row r="4">
@@ -2040,16 +2595,25 @@
         <v>0.05167684230119207</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00163416523957104</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.089189862761196</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04412703507636877</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001395419372314674</v>
       </c>
     </row>
     <row r="5">
@@ -2065,16 +2629,25 @@
         <v>0.04649745120929613</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001470378512139264</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.20557058728776</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.06061205505873445</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001916721476491318</v>
       </c>
     </row>
     <row r="6">
@@ -2090,16 +2663,25 @@
         <v>0.0469554855445818</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001484862829599903</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.9046352360102748</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03115351421260059</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0009851606203024493</v>
       </c>
     </row>
     <row r="7">
@@ -2115,16 +2697,25 @@
         <v>0.06793663499246977</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002148345031437006</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.35</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4769696007084728</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01508310312899836</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.238809685402012</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01324168448848762</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0004187388304094255</v>
       </c>
     </row>
     <row r="8">
@@ -2140,16 +2731,25 @@
         <v>0.06362615712688501</v>
       </c>
       <c r="D8" t="n">
+        <v>0.002012035752847116</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.383</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4861182983595659</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01537241035101522</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2204651943648168</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01245977188775423</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003940125829143919</v>
       </c>
     </row>
     <row r="9">
@@ -2165,16 +2765,25 @@
         <v>0.06684920690715067</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002113957536024563</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.357</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4791148087880399</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01515094056486263</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2438159826427291</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01383394960213203</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004374678977871737</v>
       </c>
     </row>
     <row r="10">
@@ -2190,16 +2799,25 @@
         <v>0.06686780051066131</v>
       </c>
       <c r="D10" t="n">
+        <v>0.002113957536024563</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.298</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4573794923255742</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01446360950800318</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.219243200115598</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01271735334975333</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0004021580239439245</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2833,25 @@
         <v>0.05018072742741907</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00158685393314726</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.394</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4886348329785751</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01545199016308255</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1884361718725942</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.008102994139738945</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002562391734857176</v>
       </c>
     </row>
     <row r="12">
@@ -2240,16 +2867,25 @@
         <v>0.07924796199193669</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.002506040598209742</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2532926892492477</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01178978392049269</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003728257030998641</v>
       </c>
     </row>
     <row r="13">
@@ -2265,16 +2901,25 @@
         <v>0.07945935931133248</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.00251272556841519</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2584403376771585</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01213693673913922</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003838036391305683</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2935,25 @@
         <v>0.08441828868722044</v>
       </c>
       <c r="D14" t="n">
+        <v>0.002669540684252422</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.046</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2711118810961235</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01453195520339301</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004595407729825736</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2969,25 @@
         <v>0.07877635540982972</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00249112708861989</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.017</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2723878639862596</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01305520889899118</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004128419545011122</v>
       </c>
     </row>
     <row r="16">
@@ -2340,16 +3003,25 @@
         <v>0.0716650744930806</v>
       </c>
       <c r="D16" t="n">
+        <v>0.002266248640837715</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.16</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3666060555964671</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01159310139695155</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2869408259080141</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.0143347982356384</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004533061222358041</v>
       </c>
     </row>
     <row r="17">
@@ -2365,16 +3037,25 @@
         <v>0.07259904302441211</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002295783319057014</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.157</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3638007696528417</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01150439046625244</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.295427688385921</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01484070235179981</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004693042150830487</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,22 +3095,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2446,16 +3142,25 @@
         <v>0.02525773412885731</v>
       </c>
       <c r="D2" t="n">
+        <v>0.000798719683821579</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.976</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.153049011757672</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004839834707921337</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1950599043367227</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01076176582702525</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0003403169165876542</v>
       </c>
     </row>
     <row r="3">
@@ -2471,16 +3176,25 @@
         <v>0.02526030193849097</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00079880088509198</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2170480826738186</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01150453796758561</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0003638054340545492</v>
       </c>
     </row>
     <row r="4">
@@ -2496,16 +3210,25 @@
         <v>0.02570082628142596</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0008127314879762169</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.976</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.153049011757672</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004839834707921337</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1967554955311123</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0112633047909581</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0003561769712011427</v>
       </c>
     </row>
     <row r="5">
@@ -2521,16 +3244,25 @@
         <v>0.02677487731330256</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0008466959638160585</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.99</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2344314466451157</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01542998545586869</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004879389830381656</v>
       </c>
     </row>
     <row r="6">
@@ -2546,16 +3278,25 @@
         <v>0.02162664384705918</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0006838945270197318</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.985</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003843826218756515</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1795078436767477</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00853570738504641</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0002699227677746652</v>
       </c>
     </row>
     <row r="7">
@@ -2571,16 +3312,25 @@
         <v>0.02475329760420017</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0007827680002926165</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1588817347733297</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.008459119750182806</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0002675008541069221</v>
       </c>
     </row>
     <row r="8">
@@ -2596,16 +3346,25 @@
         <v>0.0251642821177093</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0007957644717500675</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1572415601875014</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.008468897924037254</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002678100671142937</v>
       </c>
     </row>
     <row r="9">
@@ -2621,16 +3380,25 @@
         <v>0.02587123640331153</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0008181203291912698</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.948</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1612770220322354</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.008793491924585339</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002780746306798726</v>
       </c>
     </row>
     <row r="10">
@@ -2646,16 +3414,25 @@
         <v>0.02921634051878717</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0008181203291912698</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.892</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3103804117530615</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009815090422405696</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1555497413577373</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0093159262054159</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002945954532316388</v>
       </c>
     </row>
     <row r="11">
@@ -2671,16 +3448,25 @@
         <v>0.02101401766653452</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0006645215861726578</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.948</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1327817014640025</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.005859123759208327</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001852817617190627</v>
       </c>
     </row>
     <row r="12">
@@ -2696,16 +3482,25 @@
         <v>0.02656145429600616</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0008399469354184371</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.903</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2959577672574247</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009359006357514668</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1498464869298233</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.007557161326685062</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002389784243766461</v>
       </c>
     </row>
     <row r="13">
@@ -2721,16 +3516,25 @@
         <v>0.02730426163295941</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0008634365658930013</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.897</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1515327021372974</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.008064607285873403</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002550252745814861</v>
       </c>
     </row>
     <row r="14">
@@ -2746,16 +3550,25 @@
         <v>0.02635347321183225</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0008333699960562295</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.931</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1620795434380707</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.008666989625612105</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0002740742767398426</v>
       </c>
     </row>
     <row r="15">
@@ -2771,16 +3584,25 @@
         <v>0.02663942385351357</v>
       </c>
       <c r="D15" t="n">
+        <v>0.000842412549317226</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.927</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1614046457097251</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.009233275311306894</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002919818024713003</v>
       </c>
     </row>
     <row r="16">
@@ -2796,16 +3618,25 @@
         <v>0.02676128019061763</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0008462659850429671</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1647865191645213</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01003446935694974</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003173177827912632</v>
       </c>
     </row>
     <row r="17">
@@ -2821,16 +3652,25 @@
         <v>0.02762595524132231</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0008736094110044509</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1678336508008215</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01039052893109653</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003285773751613978</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,22 +3710,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2902,16 +3757,25 @@
         <v>0.1113700911380494</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003521831512167699</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.202977344143493</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04732180334050667</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001496446815425656</v>
       </c>
     </row>
     <row r="3">
@@ -2927,16 +3791,25 @@
         <v>0.1113609749105272</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003521543231741315</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.298530790461861</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.05118501445298705</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001618612277400766</v>
       </c>
     </row>
     <row r="4">
@@ -2952,16 +3825,25 @@
         <v>0.1121562100560724</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003546690775094698</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.212052948256998</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04657545796990988</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001472845302503573</v>
       </c>
     </row>
     <row r="5">
@@ -2977,16 +3859,25 @@
         <v>0.1202254432221164</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003801862332851405</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.349151662176647</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.06362622393467278</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002012037865494864</v>
       </c>
     </row>
     <row r="6">
@@ -3002,16 +3893,25 @@
         <v>0.08212169231753705</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002596915930309686</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.121207638747846</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03744204464895133</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001184021413444058</v>
       </c>
     </row>
     <row r="7">
@@ -3027,16 +3927,25 @@
         <v>0.1433598615604001</v>
       </c>
       <c r="D7" t="n">
+        <v>0.004533436875772849</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.901</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7723699901321817</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.03772320603479868</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001192912517137729</v>
       </c>
     </row>
     <row r="8">
@@ -3052,16 +3961,25 @@
         <v>0.1461116642649956</v>
       </c>
       <c r="D8" t="n">
+        <v>0.004620456517952182</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.835</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3711805490593493</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01173775958179414</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6779544260537953</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0330526392487997</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001045216227060839</v>
       </c>
     </row>
     <row r="9">
@@ -3077,16 +3995,25 @@
         <v>0.137762930956949</v>
       </c>
       <c r="D9" t="n">
+        <v>0.004356446389644786</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.912</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.789374299740965</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.04004860478758481</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001266448082406919</v>
       </c>
     </row>
     <row r="10">
@@ -3102,16 +4029,25 @@
         <v>0.1587113004762828</v>
       </c>
       <c r="D10" t="n">
+        <v>0.004356446389644786</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.77</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4208325082500163</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01330789239511652</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6621758808844813</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.03627731583004939</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001147189454202379</v>
       </c>
     </row>
     <row r="11">
@@ -3127,16 +4063,25 @@
         <v>0.1072140810370587</v>
       </c>
       <c r="D11" t="n">
+        <v>0.003390406933189732</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.905</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2932149382279149</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009272270487857868</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6077400254935551</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.02456011985179563</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0007766591833839126</v>
       </c>
     </row>
     <row r="12">
@@ -3152,16 +4097,25 @@
         <v>0.1533629168784757</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004849761259430637</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.879</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3261272757682191</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01031304998533412</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.8107934213969619</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03233779807836542</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001022610964422509</v>
       </c>
     </row>
     <row r="13">
@@ -3177,16 +4131,25 @@
         <v>0.1533274174003895</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004848638667365641</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.886</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.317811264746862</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0100500746265886</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.8227654486943383</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03445236935619948</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001089479579549792</v>
       </c>
     </row>
     <row r="14">
@@ -3202,16 +4165,25 @@
         <v>0.1352049804293655</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004275556891552853</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.949</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.8769897246123806</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.03839168126964108</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001214051560152908</v>
       </c>
     </row>
     <row r="15">
@@ -3227,16 +4199,25 @@
         <v>0.1401311797543576</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004431336992302444</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.242962960140018</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007683163410991595</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.8763517150393887</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04058187074643648</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001283311432692968</v>
       </c>
     </row>
     <row r="16">
@@ -3252,16 +4233,25 @@
         <v>0.1314687434206818</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004157406703296306</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.961</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.8916910419415777</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04794878078341824</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001516273583037144</v>
       </c>
     </row>
     <row r="17">
@@ -3277,16 +4267,25 @@
         <v>0.1294204863061305</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004092635126140042</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.963</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.9112901019810918</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.0480169788888609</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001518430196490215</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,22 +4325,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3358,16 +4372,25 @@
         <v>0.0331750995851811</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001049088762920795</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.996</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3395522568377987</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01470030738986014</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004648645365656287</v>
       </c>
     </row>
     <row r="3">
@@ -3383,16 +4406,25 @@
         <v>0.03318131171497053</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001049285207713346</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.998</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3691991794932194</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0160578367558901</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0005077933844378196</v>
       </c>
     </row>
     <row r="4">
@@ -3408,16 +4440,25 @@
         <v>0.03399631712421777</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001075057941699136</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.998</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3435083991333843</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01495863512360465</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004730335767798505</v>
       </c>
     </row>
     <row r="5">
@@ -3433,16 +4474,25 @@
         <v>0.03656125834024382</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001156168504769979</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3890537338485826</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0193920717586559</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006132311530677968</v>
       </c>
     </row>
     <row r="6">
@@ -3458,16 +4508,25 @@
         <v>0.02668188867879783</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008437554050006199</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.998</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3085779209585228</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01192965352974448</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003772487685065981</v>
       </c>
     </row>
     <row r="7">
@@ -3483,16 +4542,25 @@
         <v>0.03702138295298173</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001170718922607526</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.916</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.217092226093732</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01173406582433931</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003710637421925346</v>
       </c>
     </row>
     <row r="8">
@@ -3508,16 +4576,25 @@
         <v>0.03624700010547494</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001146230786816643</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.899</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3013287241535397</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009528850927577784</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2000001358347091</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01065585534847033</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003369677331845348</v>
       </c>
     </row>
     <row r="9">
@@ -3533,16 +4610,25 @@
         <v>0.03778724367006362</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001194937564971812</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.92</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2216363067353717</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01212240109604494</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003833439817362358</v>
       </c>
     </row>
     <row r="10">
@@ -3558,16 +4644,25 @@
         <v>0.04082562400511471</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001194937564971812</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.858</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3490501396647765</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01103793458940575</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1987249931483781</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01149591653505182</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003635328004195466</v>
       </c>
     </row>
     <row r="11">
@@ -3583,16 +4678,25 @@
         <v>0.02857561091892614</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0009036401603458376</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.928</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.170834006464943</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.007386913319858291</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002335947096898811</v>
       </c>
     </row>
     <row r="12">
@@ -3608,16 +4712,25 @@
         <v>0.04753284468781861</v>
       </c>
       <c r="D12" t="n">
+        <v>0.00150312052880542</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.863</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3438473498516456</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.0108734079294396</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2375022562322329</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01078118993196589</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003409311607188798</v>
       </c>
     </row>
     <row r="13">
@@ -3633,16 +4746,25 @@
         <v>0.04818535479058385</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001523754710015507</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.853</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3541059163583687</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01119781228633522</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2417256005220773</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01120931174868871</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003544695612874127</v>
       </c>
     </row>
     <row r="14">
@@ -3658,16 +4780,25 @@
         <v>0.0427802464964547</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001352830177922353</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.93</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2551470164434615</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008068457101577725</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2568970924769557</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01264205575319711</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003997769048693836</v>
       </c>
     </row>
     <row r="15">
@@ -3683,16 +4814,25 @@
         <v>0.04432073830985885</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001401544806394355</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.924</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008379976133617566</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2574744834056442</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01310363001116046</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004143731645140466</v>
       </c>
     </row>
     <row r="16">
@@ -3708,16 +4848,25 @@
         <v>0.04249623262578933</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001343848870738522</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2611949652038437</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01507078686043199</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004765801260990323</v>
       </c>
     </row>
     <row r="17">
@@ -3733,16 +4882,25 @@
         <v>0.04206505480824152</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001330213830938606</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2677348343766863</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01510901900085209</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004777891325345413</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,22 +4940,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3814,16 +4987,25 @@
         <v>0.1120321048597308</v>
       </c>
       <c r="D2" t="n">
+        <v>0.00354276622419568</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.988</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9681368864105694</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04827686914349125</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001526648647953346</v>
       </c>
     </row>
     <row r="3">
@@ -3839,16 +5021,25 @@
         <v>0.1120198077149259</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003542377354332675</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.988</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.9685111497312768</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04827639095580292</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001526633526330904</v>
       </c>
     </row>
     <row r="4">
@@ -3864,16 +5055,25 @@
         <v>0.1121146287921314</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003545375860074278</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.992</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9803984581413792</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04860238723032712</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001536942433693164</v>
       </c>
     </row>
     <row r="5">
@@ -3889,16 +5089,25 @@
         <v>0.1189206953308446</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003760602581764199</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.989</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.9937639165438383</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05361899095560354</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001695581372596754</v>
       </c>
     </row>
     <row r="6">
@@ -3914,16 +5123,25 @@
         <v>0.08263299694825677</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002613084802422342</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8427966034259879</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03569791739995062</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001128867267083999</v>
       </c>
     </row>
     <row r="7">
@@ -3939,16 +5157,25 @@
         <v>0.08170603206808026</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002583771599098914</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.997</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.25443842093478</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.08516301535388297</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.002693091009261608</v>
       </c>
     </row>
     <row r="8">
@@ -3964,16 +5191,25 @@
         <v>1.211010158897702</v>
       </c>
       <c r="D8" t="n">
+        <v>0.03829550371719164</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.997</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.215547172874228</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>5.162187769473569</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.163242710610007</v>
       </c>
     </row>
     <row r="9">
@@ -3989,16 +5225,25 @@
         <v>0.07102959948141631</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002246153156507903</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.998</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.249694555779331</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0830987510328066</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.002627813239789384</v>
       </c>
     </row>
     <row r="10">
@@ -4014,16 +5259,25 @@
         <v>3.625126229250344</v>
       </c>
       <c r="D10" t="n">
+        <v>0.114636556900488</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.303700743013609</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>8.296677514046474</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2623639795629049</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +5293,25 @@
         <v>0.08524442164108968</v>
       </c>
       <c r="D11" t="n">
+        <v>0.002695665302095918</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.996</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.729096887286716</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.181209514720252</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.005730348002098058</v>
       </c>
     </row>
     <row r="12">
@@ -4064,16 +5327,25 @@
         <v>0.1344119794671684</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004250479999280376</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.917</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.7738145597303125</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03863785875860973</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001221836375890927</v>
       </c>
     </row>
     <row r="13">
@@ -4089,16 +5361,25 @@
         <v>0.1306785091175349</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004132417300464904</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.881</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3237885112229896</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01023909175659639</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.6798892663919289</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03338659934203746</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001055776972483174</v>
       </c>
     </row>
     <row r="14">
@@ -4114,16 +5395,25 @@
         <v>0.1337603328601831</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004229873124204434</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.916</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.7898341528184127</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.04152931608954711</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001313272285120461</v>
       </c>
     </row>
     <row r="15">
@@ -4139,16 +5429,25 @@
         <v>0.1401995362248906</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004229873124204434</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.84</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3666060555964673</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01159310139695155</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.6643880414174037</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.03711067001597282</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001173542427453914</v>
       </c>
     </row>
     <row r="16">
@@ -4164,16 +5463,25 @@
         <v>0.1026160621996609</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003245004810684365</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.919</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2728351150420342</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008627803892068945</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.6080638103433448</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02505603153745097</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0007923412878335556</v>
       </c>
     </row>
     <row r="17">
@@ -4189,16 +5497,25 @@
         <v>0.1641496077962865</v>
       </c>
       <c r="D17" t="n">
+        <v>0.005190866376595981</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.86</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3469870314579495</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01097269337947616</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.8084795802529402</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.03240345293766079</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001024687153370822</v>
       </c>
     </row>
     <row r="18">
@@ -4214,16 +5531,25 @@
         <v>0.1676761771341478</v>
       </c>
       <c r="D18" t="n">
+        <v>0.005302386290937516</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.846</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3609487498246808</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01141420168036293</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.8208080130985668</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.03432156485053679</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001085343177888728</v>
       </c>
     </row>
     <row r="19">
@@ -4239,16 +5565,25 @@
         <v>0.1390350705603793</v>
       </c>
       <c r="D19" t="n">
+        <v>0.004396674976130218</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.8722146890902311</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.03815125559257142</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001206448632677626</v>
       </c>
     </row>
     <row r="20">
@@ -4264,16 +5599,25 @@
         <v>0.1476601377332845</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004669423548513516</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.917</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.8727825123817747</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.0400154097408387</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.001265398362859384</v>
       </c>
     </row>
     <row r="21">
@@ -4289,16 +5633,25 @@
         <v>0.132175004946078</v>
       </c>
       <c r="D21" t="n">
+        <v>0.004179740653736276</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.955</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.8886734199135249</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.04749876585958852</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001502042861633453</v>
       </c>
     </row>
     <row r="22">
@@ -4314,16 +5667,25 @@
         <v>0.1311332844632727</v>
       </c>
       <c r="D22" t="n">
+        <v>0.004146798559627123</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.958</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.9081406568729963</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.04888401086451752</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001545848154962921</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,22 +5725,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4395,16 +5772,25 @@
         <v>0.03352744634619299</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0010602309458306</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.987</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2795642026238876</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01482626601956578</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004688476981738643</v>
       </c>
     </row>
     <row r="3">
@@ -4420,16 +5806,25 @@
         <v>0.03353817206203746</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001060570122746643</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.987</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.279789929960183</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01483844956078041</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000469232975575912</v>
       </c>
     </row>
     <row r="4">
@@ -4445,16 +5840,25 @@
         <v>0.03397352026980499</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001074337041864819</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.987</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.284269554862083</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0154190927297342</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004875945247930315</v>
       </c>
     </row>
     <row r="5">
@@ -4470,16 +5874,25 @@
         <v>0.03690640390011964</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001167082965704995</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.985</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003843826218756515</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2912617438548625</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01653282797838339</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005228139257544853</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +5908,25 @@
         <v>0.02664739563676637</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008426646392381463</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.993</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2361462937120515</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01084865709068905</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003430646596071327</v>
       </c>
     </row>
     <row r="7">
@@ -4520,16 +5942,25 @@
         <v>0.0427603759594707</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001352201816370352</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.991</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3836346135826744</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.03488624539504004</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001103199944598871</v>
       </c>
     </row>
     <row r="8">
@@ -4545,16 +5976,25 @@
         <v>0.4812798717122175</v>
       </c>
       <c r="D8" t="n">
+        <v>0.01521940586604249</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.984</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3705271930480759</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.820538152333423</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02594769468439822</v>
       </c>
     </row>
     <row r="9">
@@ -4570,16 +6010,25 @@
         <v>0.04179633990664147</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001321716319635764</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.992</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.387091613242623</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.05971145413301903</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001888241974610149</v>
       </c>
     </row>
     <row r="10">
@@ -4595,16 +6044,25 @@
         <v>0.6888190388608209</v>
       </c>
       <c r="D10" t="n">
+        <v>0.02178237058488229</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.981</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3620592522857474</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.4375850925418696</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01383765562567867</v>
       </c>
     </row>
     <row r="11">
@@ -4620,16 +6078,25 @@
         <v>0.06258542894937688</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001979125038186699</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.98</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.14</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.004427188724235731</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.543106467744421</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.463170733374461</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01464674462993863</v>
       </c>
     </row>
     <row r="12">
@@ -4645,16 +6112,25 @@
         <v>0.03676557413714686</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001162629537571639</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.93</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2551470164434615</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008068457101577725</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2175326053198009</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01186108195474544</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.000375080344909178</v>
       </c>
     </row>
     <row r="13">
@@ -4670,16 +6146,25 @@
         <v>0.0351250800043509</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001110752558093859</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.923</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2003194970788907</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01101887008813778</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.000348447267200157</v>
       </c>
     </row>
     <row r="14">
@@ -4695,16 +6180,25 @@
         <v>0.0365695225076661</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001156429840690172</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2221654491401392</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01268474905707363</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004011269856802586</v>
       </c>
     </row>
     <row r="15">
@@ -4720,16 +6214,25 @@
         <v>0.03853858914402174</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001156429840690172</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.88</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3249615361854384</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0102761860629321</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1991054543782056</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.0116376992102799</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003680163622842731</v>
       </c>
     </row>
     <row r="16">
@@ -4745,16 +6248,25 @@
         <v>0.02788420270552744</v>
       </c>
       <c r="D16" t="n">
+        <v>0.000881775912872961</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1711850258377185</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.007283104890674136</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002303119989244189</v>
       </c>
     </row>
     <row r="17">
@@ -4770,16 +6282,25 @@
         <v>0.04733762503320914</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001496947141279447</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.867</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2368214361165761</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01072191926424709</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003390568576345756</v>
       </c>
     </row>
     <row r="18">
@@ -4795,16 +6316,25 @@
         <v>0.04919527867132379</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001555691307280852</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.868</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3384907679686405</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.0107040179372047</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2411510115974795</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01118477074075785</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000353693506476035</v>
       </c>
     </row>
     <row r="19">
@@ -4820,16 +6350,25 @@
         <v>0.04184966776969241</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001323402694735669</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2554967908410245</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01252587588229263</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0003961029747661586</v>
       </c>
     </row>
     <row r="20">
@@ -4845,16 +6384,25 @@
         <v>0.04480913351424249</v>
       </c>
       <c r="D20" t="n">
+        <v>0.001416989218835913</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.918</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2564272965896088</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.0129808424840036</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0004104902819732921</v>
       </c>
     </row>
     <row r="21">
@@ -4870,16 +6418,25 @@
         <v>0.04121114525454827</v>
       </c>
       <c r="D21" t="n">
+        <v>0.001303210839884121</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.2603191323024069</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01508491056897952</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0004770267569792183</v>
       </c>
     </row>
     <row r="22">
@@ -4895,16 +6452,25 @@
         <v>0.04192423995575908</v>
       </c>
       <c r="D22" t="n">
+        <v>0.001325760874316355</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.945</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.2668112373091775</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01536383498864305</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0004858471215909921</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,22 +6510,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4976,16 +6557,25 @@
         <v>0.03182458053594479</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001006381600730476</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.986</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2587483488910506</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01486648957340099</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004701196786309208</v>
       </c>
     </row>
     <row r="3">
@@ -5001,16 +6591,25 @@
         <v>0.03183958417687471</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001006856057515815</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.993</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2860187534754123</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01578367185941752</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004991235291646434</v>
       </c>
     </row>
     <row r="4">
@@ -5026,16 +6625,25 @@
         <v>0.03233917875185782</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001022654625151919</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.986</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2624773883124683</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01575345938660475</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004981681268863007</v>
       </c>
     </row>
     <row r="5">
@@ -5051,16 +6659,25 @@
         <v>0.03218088223584057</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001017648849789081</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.995</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3123480747413348</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02153582286624063</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006810225154325612</v>
       </c>
     </row>
     <row r="6">
@@ -5076,16 +6693,25 @@
         <v>0.027348313893093</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008648296206740053</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.987</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2354888477963848</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01185119536928803</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003747677036259047</v>
       </c>
     </row>
     <row r="7">
@@ -5101,16 +6727,25 @@
         <v>0.02690609185699861</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0008508453320182506</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.946</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1724555985060058</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.009521771979938488</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003011048681737672</v>
       </c>
     </row>
     <row r="8">
@@ -5126,16 +6761,25 @@
         <v>0.02745845768340516</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0008683126731491095</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1707512158277999</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.009545624732275373</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003018591584322518</v>
       </c>
     </row>
     <row r="9">
@@ -5151,16 +6795,25 @@
         <v>0.02658709808838541</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0008407578633360662</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.951</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006826346021115543</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1749299228258723</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.009737182532652095</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003079167479598748</v>
       </c>
     </row>
     <row r="10">
@@ -5176,16 +6829,25 @@
         <v>0.03006636017961155</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0008407578633360662</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.907</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2904324362050492</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009184280047995052</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1691584289598926</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01053678290028395</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003332023317561211</v>
       </c>
     </row>
     <row r="11">
@@ -5201,16 +6863,25 @@
         <v>0.02148583867238416</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0006794418764366226</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.957</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1441712199654449</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.006298225526521682</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001991673788122174</v>
       </c>
     </row>
     <row r="12">
@@ -5226,16 +6897,25 @@
         <v>0.02912604447022306</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0009210463975725712</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.916</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1705812398510964</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.008751656056646578</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002767516643741077</v>
       </c>
     </row>
     <row r="13">
@@ -5251,16 +6931,25 @@
         <v>0.03054202617236527</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0009658236706114865</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.91</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2861817604250837</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009049861877399014</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1733373958561232</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.009242188276917087</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002922636551916499</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +6965,25 @@
         <v>0.02997320111187313</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0009478358427981042</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.92</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1803520326888161</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.009867006055709407</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003120221282271598</v>
       </c>
     </row>
     <row r="15">
@@ -5301,16 +6999,25 @@
         <v>0.03105442136804347</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0009820270294161942</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.922</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.182688024130338</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.009902898157760799</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003131571361520958</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +7033,25 @@
         <v>0.03152171952062448</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0009968042945016433</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.931</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1956325487770717</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01064927986814102</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003367597982390321</v>
       </c>
     </row>
     <row r="17">
@@ -5351,16 +7067,25 @@
         <v>0.03278489097936473</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001036749283351009</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.93</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2010005123099614</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01136268222708419</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003593195616630061</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +7099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,22 +7125,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5432,16 +7172,25 @@
         <v>0.1360635150576454</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004302706140307761</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.638358590276622</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.06333701581265133</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002002892301660787</v>
       </c>
     </row>
     <row r="3">
@@ -5457,16 +7206,25 @@
         <v>0.1360189065835654</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004301295496497384</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.756970764265781</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.06824742672909914</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.002158173129094085</v>
       </c>
     </row>
     <row r="4">
@@ -5482,16 +7240,25 @@
         <v>0.1373169278602159</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004342342533353136</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.657415965107863</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.06332533454280796</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002002522907474106</v>
       </c>
     </row>
     <row r="5">
@@ -5507,16 +7274,25 @@
         <v>0.1485619732756381</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004697942092400823</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.852538837687333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.09233119631897771</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002919768794561241</v>
       </c>
     </row>
     <row r="6">
@@ -5532,16 +7308,25 @@
         <v>0.1004051628933099</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003175090035830809</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.512457413547579</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0496859643537231</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00157120815099701</v>
       </c>
     </row>
     <row r="7">
@@ -5557,16 +7342,25 @@
         <v>0.1874755878359236</v>
       </c>
       <c r="D7" t="n">
+        <v>0.00592849863240476</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.858</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3490501396647765</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01103793458940575</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9127701285261711</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.05167866450137457</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001634222862600335</v>
       </c>
     </row>
     <row r="8">
@@ -5582,16 +7376,25 @@
         <v>0.1825827363013</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005773773081380153</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.8129999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3899115284266418</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01233008515785678</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.808785103282025</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.04293452398215449</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001357708860387307</v>
       </c>
     </row>
     <row r="9">
@@ -5607,16 +7410,25 @@
         <v>0.187026834761559</v>
       </c>
       <c r="D9" t="n">
+        <v>0.005914307814184808</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.869</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3374003556607491</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01066953607238853</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9321699582967403</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.05569500060285361</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001761230561894684</v>
       </c>
     </row>
     <row r="10">
@@ -5632,16 +7444,25 @@
         <v>0.2058087627808981</v>
       </c>
       <c r="D10" t="n">
+        <v>0.005914307814184808</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.746</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4352975993501457</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01376531873949892</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7890749730206894</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.04734368476541403</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001497138766837228</v>
       </c>
     </row>
     <row r="11">
@@ -5657,16 +7478,25 @@
         <v>0.1334268370943217</v>
       </c>
       <c r="D11" t="n">
+        <v>0.004219327062102993</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.894</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.7249629353488244</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.03156952016149785</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0009983158834893991</v>
       </c>
     </row>
     <row r="12">
@@ -5682,16 +7512,25 @@
         <v>0.1641607999068537</v>
       </c>
       <c r="D12" t="n">
+        <v>0.005191220302208149</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.912</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.9230229768944905</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.0387668443654049</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001225915258919443</v>
       </c>
     </row>
     <row r="13">
@@ -5707,16 +7546,25 @@
         <v>0.1658062602096255</v>
       </c>
       <c r="D13" t="n">
+        <v>0.005243254325769641</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.903</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2959577672574247</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009359006357514668</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.9411975882273443</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.04049804111488854</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001280660506981926</v>
       </c>
     </row>
     <row r="14">
@@ -5732,16 +7580,25 @@
         <v>0.1572964865869249</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004974151655568078</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.975819593079416</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.04327763181145203</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001368558882623472</v>
       </c>
     </row>
     <row r="15">
@@ -5757,16 +7614,25 @@
         <v>0.1589915567513931</v>
       </c>
       <c r="D15" t="n">
+        <v>0.005027754480703234</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.9919280858347383</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04283285608818033</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001354493839288598</v>
       </c>
     </row>
     <row r="16">
@@ -5782,16 +7648,25 @@
         <v>0.1421689223759477</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00449577607199672</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.979</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.05856621071002</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04822421666591912</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001524983630417557</v>
       </c>
     </row>
     <row r="17">
@@ -5807,16 +7682,25 @@
         <v>0.1433499710775562</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004533124111243394</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.978</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.091423417611101</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.0516737657113334</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001634067949257244</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +7714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5856,22 +7740,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5888,16 +7787,25 @@
         <v>0.04120085379573848</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001302885395381274</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4598175816198345</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01982861973238704</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006270360121170143</v>
       </c>
     </row>
     <row r="3">
@@ -5913,16 +7821,25 @@
         <v>0.04116632641560126</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001301793543752553</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4966168856811751</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02156375977711745</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006819059581241597</v>
       </c>
     </row>
     <row r="4">
@@ -5938,16 +7855,25 @@
         <v>0.04150042179555755</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001312358567316565</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4672289040154352</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.02032300543662576</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0006426698607972218</v>
       </c>
     </row>
     <row r="5">
@@ -5963,16 +7889,25 @@
         <v>0.04322602315185321</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001366926873510266</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5304785602966167</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02776507372729084</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0008780087238073982</v>
       </c>
     </row>
     <row r="6">
@@ -5988,16 +7923,25 @@
         <v>0.03428751218188256</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001084266337955184</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4134428813390179</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01596761478950741</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000504940315350335</v>
       </c>
     </row>
     <row r="7">
@@ -6013,16 +7957,25 @@
         <v>0.04558974947305587</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001441674462913177</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.913</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008912407082264592</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2599751519811794</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01463259339999186</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0004627232321912152</v>
       </c>
     </row>
     <row r="8">
@@ -6038,16 +7991,25 @@
         <v>0.04410160039063865</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001394615056929897</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.903</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2959577672574247</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009359006357514668</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2394888373777654</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01358994628537695</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0004297518354113578</v>
       </c>
     </row>
     <row r="9">
@@ -6063,16 +8025,25 @@
         <v>0.0457726482316436</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001447458229496722</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.906</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2918287168871494</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.009228434320078352</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2662063476023395</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01506852368485153</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004765085582032411</v>
       </c>
     </row>
     <row r="10">
@@ -6088,16 +8059,25 @@
         <v>0.04994366725176642</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001447458229496722</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.838</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.368450810828257</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01165143767953123</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.238249926491056</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0138229316129315</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0004371194783760853</v>
       </c>
     </row>
     <row r="11">
@@ -6113,16 +8093,25 @@
         <v>0.03303469293765507</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001044648714872688</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2046602147561883</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.008903386786883231</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002815498113599917</v>
       </c>
     </row>
     <row r="12">
@@ -6138,16 +8127,25 @@
         <v>0.05091304021720621</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001610011696901255</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.902</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2973146481423342</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009401914698613255</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.270378475665202</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01279098225578532</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004044863743908007</v>
       </c>
     </row>
     <row r="13">
@@ -6163,16 +8161,25 @@
         <v>0.05119345301527289</v>
       </c>
       <c r="D13" t="n">
+        <v>0.00161887912817077</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.889</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.314132137801913</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009933730417119242</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2765212507248665</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01312748607322424</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004151275594352853</v>
       </c>
     </row>
     <row r="14">
@@ -6188,16 +8195,25 @@
         <v>0.0489226631814587</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001547070448546689</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.927</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2858564038726964</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01438682589023676</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004549513811342775</v>
       </c>
     </row>
     <row r="15">
@@ -6213,16 +8229,25 @@
         <v>0.04963998397982551</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001569754123905185</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.909</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2876091097305508</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00909499862561837</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.291431520713263</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01398605067193712</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.000442277755938497</v>
       </c>
     </row>
     <row r="16">
@@ -6238,16 +8263,25 @@
         <v>0.04635320579777293</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001465817071714847</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.959</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006270486424512855</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3100844281166152</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01569475240921156</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004963116492552357</v>
       </c>
     </row>
     <row r="17">
@@ -6263,16 +8297,25 @@
         <v>0.04749207383383437</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001501831241198017</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.956</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3206549804536156</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01644308333447408</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0005199759509289439</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,22 +8355,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6344,16 +8402,25 @@
         <v>0.01972886314418495</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0006238814318137538</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.99</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1732853938481734</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01014070520820601</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0003206772553826301</v>
       </c>
     </row>
     <row r="3">
@@ -6369,16 +8436,25 @@
         <v>0.01972932379817328</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0006238959989719173</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.173286386435932</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01014096686385437</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0003206855296607446</v>
       </c>
     </row>
     <row r="4">
@@ -6394,16 +8470,25 @@
         <v>0.01993015159026647</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0006302467313766897</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.989</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1761167127673766</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01058377362281101</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0003346883088769461</v>
       </c>
     </row>
     <row r="5">
@@ -6419,16 +8504,25 @@
         <v>0.02011689186724628</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0006361519774381586</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.993</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1846008401494286</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0127295755832361</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004025445249029238</v>
       </c>
     </row>
     <row r="6">
@@ -6444,16 +8538,25 @@
         <v>0.0169574511600038</v>
       </c>
       <c r="D6" t="n">
+        <v>0.000536241689766764</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.986</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1448027407543792</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.007235804587042609</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0002288162319894873</v>
       </c>
     </row>
     <row r="7">
@@ -6469,16 +8572,25 @@
         <v>10.12614112397817</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3202166986006848</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.965</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H7" t="n">
         <v>7.395698588479298</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>176.7452753146784</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.589176356679172</v>
       </c>
     </row>
     <row r="8">
@@ -6494,16 +8606,25 @@
         <v>6.140665596344328</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1941848963388421</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.964</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1862900963551203</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.005891010100144116</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.14352639567808</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>78.75256925512626</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.490374904363489</v>
       </c>
     </row>
     <row r="9">
@@ -6519,16 +8640,25 @@
         <v>6.463446969952974</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2043921396076529</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.96</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.138259107665235</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>13.04032048829708</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4123711416157788</v>
       </c>
     </row>
     <row r="10">
@@ -6544,16 +8674,25 @@
         <v>10.72945801243554</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3392952537843952</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.958</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H10" t="n">
         <v>14.1434108110714</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>277.9147926034428</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.788437400801957</v>
       </c>
     </row>
     <row r="11">
@@ -6569,16 +8708,25 @@
         <v>5.779141369703534</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1827524964836837</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.93</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5090759358373912</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.528608905334442</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04833885792473549</v>
       </c>
     </row>
     <row r="12">
@@ -6594,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6605,6 +8753,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6619,16 +8776,25 @@
         <v>0.005227489537100441</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0001653077338193667</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.998</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.0003211952775984198</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.007177840925338718</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002269832600644096</v>
       </c>
     </row>
     <row r="14">
@@ -6644,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6655,6 +8821,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6669,16 +8844,25 @@
         <v>0.005576286174047813</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.998</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.0004526802689467231</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.008280948031295825</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002618665696438211</v>
       </c>
     </row>
     <row r="16">
@@ -6694,16 +8878,25 @@
         <v>0.004265539067366747</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0001348881890130933</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.0001308586258109554</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.004136043516355033</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0001307931801325379</v>
       </c>
     </row>
     <row r="17">
@@ -6719,16 +8912,25 @@
         <v>0.02426983546768758</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0007674795851543063</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1493149106594368</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.007680005003140053</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002428630825141118</v>
       </c>
     </row>
     <row r="18">
@@ -6744,16 +8946,25 @@
         <v>0.02387151112897888</v>
       </c>
       <c r="D18" t="n">
+        <v>0.0007548834635763077</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.952</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.1509985417527594</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.00805946378133876</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0002548626226866373</v>
       </c>
     </row>
     <row r="19">
@@ -6769,16 +8980,25 @@
         <v>0.02606159401498921</v>
       </c>
       <c r="D19" t="n">
+        <v>0.0008241399654197833</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.161190650445145</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.008675896803231904</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0002743559464278651</v>
       </c>
     </row>
     <row r="20">
@@ -6794,16 +9014,25 @@
         <v>0.02553249621344273</v>
       </c>
       <c r="D20" t="n">
+        <v>0.0008074084238410367</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.951</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006826346021115542</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.1607320135748259</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.009063840061111569</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0002866237894059231</v>
       </c>
     </row>
     <row r="21">
@@ -6819,16 +9048,25 @@
         <v>0.02666841840267239</v>
       </c>
       <c r="D21" t="n">
+        <v>0.0008433294374679419</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1645987929829283</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01118540619956594</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0003537136014479627</v>
       </c>
     </row>
     <row r="22">
@@ -6844,16 +9082,25 @@
         <v>0.02633071900035976</v>
       </c>
       <c r="D22" t="n">
+        <v>0.0008326504447100874</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.948</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.1676146196565422</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01197985971325972</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.000378836427431924</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +9114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,22 +9140,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6925,16 +9187,25 @@
         <v>0.08309195175011458</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002627598227591762</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9671589501124052</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04759816729592542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001505186211048621</v>
       </c>
     </row>
     <row r="3">
@@ -6950,16 +9221,25 @@
         <v>0.08311937421103686</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002628465401947376</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.998</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.9675305998016674</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04759423669557384</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001505061914551793</v>
       </c>
     </row>
     <row r="4">
@@ -6975,16 +9255,25 @@
         <v>0.08980956712204836</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002840027877794461</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.997</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9807920597889838</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04846685715641967</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001532656596443179</v>
       </c>
     </row>
     <row r="5">
@@ -7000,16 +9289,25 @@
         <v>0.08748126111676706</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002766400377129091</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.997</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.9932554944148689</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05238218352094158</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001656470087391138</v>
       </c>
     </row>
     <row r="6">
@@ -7025,16 +9323,25 @@
         <v>0.06788096549301116</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002146584607292099</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8427586167308606</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03454081674692962</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001092276531627854</v>
       </c>
     </row>
     <row r="7">
@@ -7050,16 +9357,25 @@
         <v>2.965445935207733</v>
       </c>
       <c r="D7" t="n">
+        <v>0.09377563433344542</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.997</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.880623935570074</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>51.13554835076409</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.617048021900813</v>
       </c>
     </row>
     <row r="8">
@@ -7075,16 +9391,25 @@
         <v>1.961361921194313</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06202370986897709</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.997</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.257661360144745</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>5.369012063282788</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.169783069048937</v>
       </c>
     </row>
     <row r="9">
@@ -7100,16 +9425,25 @@
         <v>1.288500514911475</v>
       </c>
       <c r="D9" t="n">
+        <v>0.04074596393420011</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.998</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.637952440956263</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>12.31869093586396</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3895512114900131</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +9459,25 @@
         <v>0.5444564371184979</v>
       </c>
       <c r="D10" t="n">
+        <v>0.01721722428034696</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H10" t="n">
         <v>52.94761671985626</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>1640.644941444001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>51.88174846596622</v>
       </c>
     </row>
     <row r="11">
@@ -7150,16 +9493,25 @@
         <v>3.485879396878372</v>
       </c>
       <c r="D11" t="n">
+        <v>0.110233185427897</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.995</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.198713789824116</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>14.86288432896511</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4700056707915307</v>
       </c>
     </row>
     <row r="12">
@@ -7175,16 +9527,25 @@
         <v>0.0445608639986451</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001409138247407168</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.01033663581770897</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.08686691645233408</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.002746973093049291</v>
       </c>
     </row>
     <row r="13">
@@ -7200,16 +9561,25 @@
         <v>0.05664540113633752</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001791284865647167</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.041</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.006270486424512856</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.05380094543479216</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.181470746349892</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.005738608871563459</v>
       </c>
     </row>
     <row r="14">
@@ -7225,16 +9595,25 @@
         <v>0.05074516241551945</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001604702934682132</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.01527880794532556</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1070933322490894</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.003386588521242853</v>
       </c>
     </row>
     <row r="15">
@@ -7250,16 +9629,25 @@
         <v>0.05363703240177615</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001604702934682132</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.06</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2374868417407583</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.06309681959672959</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1916918356288418</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.006061828094457553</v>
       </c>
     </row>
     <row r="16">
@@ -7275,16 +9663,25 @@
         <v>0.0510578089663062</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001614589686712949</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.005</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.02763584622622008</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.124540786861764</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.003938325480727478</v>
       </c>
     </row>
     <row r="17">
@@ -7300,16 +9697,25 @@
         <v>0.1466579678826037</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004637732155208492</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.898</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3026483107502832</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009570579919733181</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.8078290945046989</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.03096908740293915</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0009793285325011645</v>
       </c>
     </row>
     <row r="18">
@@ -7325,16 +9731,25 @@
         <v>0.1540317730798976</v>
       </c>
       <c r="D18" t="n">
+        <v>0.004870912349666854</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.9</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.009486832980505138</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.8197666066018839</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.03196897981928996</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001010947907009144</v>
       </c>
     </row>
     <row r="19">
@@ -7350,16 +9765,25 @@
         <v>0.1310283491075705</v>
       </c>
       <c r="D19" t="n">
+        <v>0.004143480212316137</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.959</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006270486424512856</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.872109677781793</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.03684822881049325</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001165243307841956</v>
       </c>
     </row>
     <row r="20">
@@ -7375,16 +9799,25 @@
         <v>0.1405189129368501</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004443598192113466</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.007795832219846706</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.8726657512616698</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.0387632594520648</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.001225801894005753</v>
       </c>
     </row>
     <row r="21">
@@ -7400,16 +9833,25 @@
         <v>0.1288209391563376</v>
       </c>
       <c r="D21" t="n">
+        <v>0.004073675780559964</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.967</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.005648982209212558</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.890490485726895</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.05169949884428376</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001634881702371795</v>
       </c>
     </row>
     <row r="22">
@@ -7425,16 +9867,25 @@
         <v>0.1297548090248999</v>
       </c>
       <c r="D22" t="n">
+        <v>0.004103207338788554</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.964</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1862900963551203</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005891010100144116</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.90993874039247</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.05519473268743888</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001745410701364534</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,22 +9925,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -7506,16 +9972,25 @@
         <v>0.02741255976742747</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0008668612536056641</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2793800020113007</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01483292948769169</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004690584155378023</v>
       </c>
     </row>
     <row r="3">
@@ -7531,16 +10006,25 @@
         <v>0.02741380980063909</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0008669007831266596</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.998</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2796047217302494</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01484496180808453</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000469438910917585</v>
       </c>
     </row>
     <row r="4">
@@ -7556,16 +10040,25 @@
         <v>0.02830686459980816</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0008951416555338448</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.994</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07722693830523129</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2843847363857584</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01551673769761567</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004906823297986258</v>
       </c>
     </row>
     <row r="5">
@@ -7581,16 +10074,25 @@
         <v>0.02781497914098844</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0008795868715559719</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.995</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.291111678325036</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01684863238927342</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005328005380898873</v>
       </c>
     </row>
     <row r="6">
@@ -7606,16 +10108,25 @@
         <v>0.0236591003156943</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0007481664438800273</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.997</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2361729741901169</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01080572523994055</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003417070352818161</v>
       </c>
     </row>
     <row r="7">
@@ -7631,16 +10142,25 @@
         <v>5.208479161331391</v>
       </c>
       <c r="D7" t="n">
+        <v>0.164706572953308</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.991</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H7" t="n">
         <v>8.095084860486601</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>232.5761617616478</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.35470400626566</v>
       </c>
     </row>
     <row r="8">
@@ -7656,16 +10176,25 @@
         <v>8.056307539855034</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2547628135672965</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.984</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.879665187180655</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>11.26402752120186</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3561998259381846</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +10210,25 @@
         <v>5.300469641723865</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1676155673642407</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.998</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.49057511035805</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>110.4539674280353</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.49286113674642</v>
       </c>
     </row>
     <row r="10">
@@ -7706,16 +10244,25 @@
         <v>2.21094130462521</v>
       </c>
       <c r="D10" t="n">
+        <v>0.06991610295559832</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.989</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.624508057345948</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>30.38510940619449</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9608615267698092</v>
       </c>
     </row>
     <row r="11">
@@ -7731,16 +10278,25 @@
         <v>6.092257603748485</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1926541012032478</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.984</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.9086608258284019</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>9.855264290410542</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3116508210062043</v>
       </c>
     </row>
     <row r="12">
@@ -7756,16 +10312,25 @@
         <v>0.009823469458062447</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.0003106453801257725</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.001073386071100877</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.0151580465772285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004793395206296146</v>
       </c>
     </row>
     <row r="13">
@@ -7781,16 +10346,25 @@
         <v>0.01452036214462085</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0004591741682748913</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.006010043779924341</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03365040266078984</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001064119165898863</v>
       </c>
     </row>
     <row r="14">
@@ -7806,16 +10380,25 @@
         <v>0.007515302392019736</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0002376547286369399</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.001053106765097391</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01487250594093349</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004703099328773549</v>
       </c>
     </row>
     <row r="15">
@@ -7831,16 +10414,25 @@
         <v>0.01705177727460701</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0002376547286369399</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.011</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.007303262067798038</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.03679914118000664</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001163691020669173</v>
       </c>
     </row>
     <row r="16">
@@ -7856,16 +10448,25 @@
         <v>0.01090815139777401</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0003449460347891525</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.00293548864816186</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02169191586003128</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0006859586093042908</v>
       </c>
     </row>
     <row r="17">
@@ -7881,16 +10482,25 @@
         <v>0.04205802843168844</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001329991637402549</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.921</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2366520754652529</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.010822454138253</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.000342236049495943</v>
       </c>
     </row>
     <row r="18">
@@ -7906,16 +10516,25 @@
         <v>0.04277619128654264</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001352701940925231</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.915</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2788816953476869</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.00881901355027874</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2408664163239698</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01102662781366258</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003486925880213648</v>
       </c>
     </row>
     <row r="19">
@@ -7931,16 +10550,25 @@
         <v>0.03933095096057702</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001243753875758108</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.946</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2554797876891801</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01247760067679911</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0003945763787274368</v>
       </c>
     </row>
     <row r="20">
@@ -7956,16 +10584,25 @@
         <v>0.0410086309723283</v>
       </c>
       <c r="D20" t="n">
+        <v>0.001296806775978829</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2482820976228452</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.00785136930732468</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2563987212966298</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.01273977110116478</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0004028669354887209</v>
       </c>
     </row>
     <row r="21">
@@ -7981,16 +10618,25 @@
         <v>0.03906290240259659</v>
       </c>
       <c r="D21" t="n">
+        <v>0.001235277436090689</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.949</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.2608634519489364</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01640864683663906</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0005188869732509624</v>
       </c>
     </row>
     <row r="22">
@@ -8006,16 +10652,25 @@
         <v>0.04006045757437753</v>
       </c>
       <c r="D22" t="n">
+        <v>0.001266822900435772</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.953</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.2673572296719728</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01737227604652164</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0005493596044819362</v>
       </c>
     </row>
   </sheetData>
